--- a/Ferticlay.xlsx
+++ b/Ferticlay.xlsx
@@ -3557,8 +3557,8 @@
   <sheetPr/>
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
